--- a/T1L vs kpl FL fixed.xlsx
+++ b/T1L vs kpl FL fixed.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF96B06D-5C88-4EF4-AF67-9EBE07AEBF63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C245FBC9-A1CA-48F4-97CF-5D42807F31A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D7F60442-4734-4349-8898-F2B03E5DC6C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D7F60442-4734-4349-8898-F2B03E5DC6C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="6">
   <si>
     <t>Kpl</t>
   </si>
@@ -46,6 +47,9 @@
   </si>
   <si>
     <t>UOK + DIDS</t>
+  </si>
+  <si>
+    <t>T1L</t>
   </si>
 </sst>
 </file>
@@ -98,6 +102,1591 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>kpl vs.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> R1L (R1L and kLEfflux fixed)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HK-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2499999999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5555555555555546E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9999999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5454545454545442E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1666666666666657E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.846153846153845E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5714285714285705E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3333333333333326E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1249999999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9411764705882342E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7777777777777766E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6.6438807717407273E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1393008029745205E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7807827392472701E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5527591472082672E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5294587596014113E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5108579274232634E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2130923910368794E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2027120702529854E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1938242038483099E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1861285211378596E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1794002354933669E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1734677280702974E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8683892666986198E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.8222373676439996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5EF8-46E8-A048-716AAE151DDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UMRC6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2499999999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5555555555555546E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9999999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5454545454545442E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1666666666666657E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.846153846153845E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5714285714285705E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3333333333333326E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1249999999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9411764705882342E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7777777777777766E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.0525472368963272E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0432712738689898E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0193304372485517E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6810481875143831E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6702790345007597E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6616822211620412E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4539471508701085E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4458879479159128E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.438988189312785E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4330144770537982E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4277921144510779E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4231877481887456E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2785574417062942E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2749869232787816E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5EF8-46E8-A048-716AAE151DDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UOK262</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2499999999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5555555555555546E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9999999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5454545454545442E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1666666666666657E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.846153846153845E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5714285714285705E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3333333333333326E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1249999999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9411764705882342E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7777777777777766E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.1446275363285718E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0613424293519044E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0021532210973997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6059983955758915E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5677958821264651E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5372938339572715E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0484238623935211E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0313611971688409E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0167506623680356E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0040991006767418E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9930373042493389E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9832833377991476E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6762051333832524E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6686056562250012E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5EF8-46E8-A048-716AAE151DDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UOK + DIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2499999999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5555555555555546E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9999999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5454545454545442E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1666666666666657E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.846153846153845E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5714285714285705E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3333333333333326E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1249999999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9411764705882342E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7777777777777766E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9.5214482964461056E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9378368129709035E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4213083031991175E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8684034895057391E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8448340152268424E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8260075338412417E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5231578441408437E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5125433210572404E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5034513956382944E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4955763549346638E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4886891994540921E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4826150003807968E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2906445734272519E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2858721113346901E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5EF8-46E8-A048-716AAE151DDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="543961616"/>
+        <c:axId val="543958664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="543961616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>R1L</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543958664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="543958664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>kpl</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543961616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7B4E2C-5C4E-4EFD-ADAF-F140F1CB8D75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,15 +1986,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026B6137-054F-4797-AB1A-CEDA81950D72}">
-  <dimension ref="H1:AW5"/>
+  <dimension ref="A1:AW42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AP13" sqref="AP13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
       <c r="H1">
         <v>1</v>
       </c>
@@ -491,7 +2095,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6.6438807717407273E-3</v>
+      </c>
+      <c r="C2">
+        <v>1.0525472368963272E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.1446275363285718E-2</v>
+      </c>
+      <c r="E2">
+        <v>9.5214482964461056E-3</v>
+      </c>
       <c r="H2" t="s">
         <v>1</v>
       </c>
@@ -619,7 +2238,19 @@
         <v>5.7099669301288172E-4</v>
       </c>
     </row>
-    <row r="3" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>3.6954019640209371E-4</v>
+      </c>
+      <c r="C3">
+        <v>1.4793914101527972E-3</v>
+      </c>
+      <c r="D3">
+        <v>6.8218869078915025E-3</v>
+      </c>
+      <c r="E3">
+        <v>2.0361246473766465E-3</v>
+      </c>
       <c r="H3" t="s">
         <v>2</v>
       </c>
@@ -747,7 +2378,22 @@
         <v>5.2238862643600099E-4</v>
       </c>
     </row>
-    <row r="4" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
       <c r="H4" t="s">
         <v>3</v>
       </c>
@@ -875,7 +2521,22 @@
         <v>1.0191693081591985E-2</v>
       </c>
     </row>
-    <row r="5" spans="8:49" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>6.1393008029745205E-3</v>
+      </c>
+      <c r="C5">
+        <v>1.0432712738689898E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.0613424293519044E-2</v>
+      </c>
+      <c r="E5">
+        <v>8.9378368129709035E-3</v>
+      </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
@@ -1000,10 +2661,871 @@
         <v>1.2858721113346901E-2</v>
       </c>
       <c r="AW5">
+        <v>3.0157379971263712E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3.3887594261781229E-4</v>
+      </c>
+      <c r="C6">
+        <v>1.46650898425416E-3</v>
+      </c>
+      <c r="D6">
+        <v>6.2867686489395686E-3</v>
+      </c>
+      <c r="E6">
+        <v>1.9122249687452508E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>5.7807827392472701E-3</v>
+      </c>
+      <c r="C8">
+        <v>1.0193304372485517E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.0021532210973997E-2</v>
+      </c>
+      <c r="E8">
+        <v>8.4213083031991175E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>3.1731993345129693E-4</v>
+      </c>
+      <c r="C9">
+        <v>1.2469975741346176E-3</v>
+      </c>
+      <c r="D9">
+        <v>5.9066029730834597E-3</v>
+      </c>
+      <c r="E9">
+        <v>1.8051030631496641E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1.5527591472082672E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.6810481875143831E-2</v>
+      </c>
+      <c r="D11">
+        <v>2.6059983955758915E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.8684034895057391E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>9.6523778490053907E-4</v>
+      </c>
+      <c r="C12">
+        <v>1.8513520124387962E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.6226679471984893E-2</v>
+      </c>
+      <c r="E12">
+        <v>5.2201199437331616E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1.5294587596014113E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.6702790345007597E-2</v>
+      </c>
+      <c r="D14">
+        <v>2.5677958821264651E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.8448340152268424E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>9.4838164917814384E-4</v>
+      </c>
+      <c r="C15">
+        <v>1.7547266519691699E-3</v>
+      </c>
+      <c r="D15">
+        <v>1.5980643054783611E-2</v>
+      </c>
+      <c r="E15">
+        <v>5.1266054140642215E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>1.5108579274232634E-2</v>
+      </c>
+      <c r="C17">
+        <v>1.6616822211620412E-2</v>
+      </c>
+      <c r="D17">
+        <v>2.5372938339572715E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.8260075338412417E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>9.3496922400703017E-4</v>
+      </c>
+      <c r="C18">
+        <v>1.6785164498322809E-3</v>
+      </c>
+      <c r="D18">
+        <v>1.5784203945237309E-2</v>
+      </c>
+      <c r="E18">
+        <v>5.0520415230782961E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1.2130923910368794E-2</v>
+      </c>
+      <c r="C20">
+        <v>1.4539471508701085E-2</v>
+      </c>
+      <c r="D20">
+        <v>2.0484238623935211E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.5231578441408437E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>7.2574318861538963E-4</v>
+      </c>
+      <c r="C21">
+        <v>5.2373040222958994E-4</v>
+      </c>
+      <c r="D21">
+        <v>1.2636347951242055E-2</v>
+      </c>
+      <c r="E21">
+        <v>3.8766662530959955E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>1.2027120702529854E-2</v>
+      </c>
+      <c r="C23">
+        <v>1.4458879479159128E-2</v>
+      </c>
+      <c r="D23">
+        <v>2.0313611971688409E-2</v>
+      </c>
+      <c r="E23">
+        <v>1.5125433210572404E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>7.1864131143553026E-4</v>
+      </c>
+      <c r="C24">
+        <v>4.8798005166433991E-4</v>
+      </c>
+      <c r="D24">
+        <v>1.2526503549123756E-2</v>
+      </c>
+      <c r="E24">
+        <v>3.8366430226828329E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1.1938242038483099E-2</v>
+      </c>
+      <c r="C26">
+        <v>1.438988189312785E-2</v>
+      </c>
+      <c r="D26">
+        <v>2.0167506623680356E-2</v>
+      </c>
+      <c r="E26">
+        <v>1.5034513956382944E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>7.125710993672918E-4</v>
+      </c>
+      <c r="C27">
+        <v>4.5818695787063672E-4</v>
+      </c>
+      <c r="D27">
+        <v>1.2432446614567652E-2</v>
+      </c>
+      <c r="E27">
+        <v>3.802448072138866E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>1.1861285211378596E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.4330144770537982E-2</v>
+      </c>
+      <c r="D29">
+        <v>2.0040991006767418E-2</v>
+      </c>
+      <c r="E29">
+        <v>1.4955763549346638E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>7.0732302321933004E-4</v>
+      </c>
+      <c r="C30">
+        <v>4.3311992388785217E-4</v>
+      </c>
+      <c r="D30">
+        <v>1.2351001955296233E-2</v>
+      </c>
+      <c r="E30">
+        <v>3.7728968366577851E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>1.1794002354933669E-2</v>
+      </c>
+      <c r="C32">
+        <v>1.4277921144510779E-2</v>
+      </c>
+      <c r="D32">
+        <v>1.9930373042493389E-2</v>
+      </c>
+      <c r="E32">
+        <v>1.4886891994540921E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>7.0274068572818245E-4</v>
+      </c>
+      <c r="C33">
+        <v>4.1185669208851995E-4</v>
+      </c>
+      <c r="D33">
+        <v>1.2279792259863595E-2</v>
+      </c>
+      <c r="E33">
+        <v>3.7471049715855891E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>1.1734677280702974E-2</v>
+      </c>
+      <c r="C35">
+        <v>1.4231877481887456E-2</v>
+      </c>
+      <c r="D35">
+        <v>1.9832833377991476E-2</v>
+      </c>
+      <c r="E35">
+        <v>1.4826150003807968E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>6.9870498656921843E-4</v>
+      </c>
+      <c r="C36">
+        <v>3.9369275613242573E-4</v>
+      </c>
+      <c r="D36">
+        <v>1.2217002345923621E-2</v>
+      </c>
+      <c r="E36">
+        <v>3.724399006541488E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>9.8683892666986198E-3</v>
+      </c>
+      <c r="C38">
+        <v>1.2785574417062942E-2</v>
+      </c>
+      <c r="D38">
+        <v>1.6762051333832524E-2</v>
+      </c>
+      <c r="E38">
+        <v>1.2906445734272519E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>5.7402304670452491E-4</v>
+      </c>
+      <c r="C39">
+        <v>5.0701527305096279E-4</v>
+      </c>
+      <c r="D39">
+        <v>1.0240594198034062E-2</v>
+      </c>
+      <c r="E39">
+        <v>3.0321640848590039E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>9.8222373676439996E-3</v>
+      </c>
+      <c r="C41">
+        <v>1.2749869232787816E-2</v>
+      </c>
+      <c r="D41">
+        <v>1.6686056562250012E-2</v>
+      </c>
+      <c r="E41">
+        <v>1.2858721113346901E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>5.7099669301288172E-4</v>
+      </c>
+      <c r="C42">
+        <v>5.2238862643600099E-4</v>
+      </c>
+      <c r="D42">
+        <v>1.0191693081591985E-2</v>
+      </c>
+      <c r="E42">
         <v>3.0157379971263712E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A3DD82-9E59-47EE-B3DE-C0BA9B0DBB6A}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>6.6438807717407273E-3</v>
+      </c>
+      <c r="C2">
+        <v>1.0525472368963272E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.1446275363285718E-2</v>
+      </c>
+      <c r="E2">
+        <v>9.5214482964461056E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="B3">
+        <v>6.1393008029745205E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.0432712738689898E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.0613424293519044E-2</v>
+      </c>
+      <c r="E3">
+        <v>8.9378368129709035E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="B4">
+        <v>5.7807827392472701E-3</v>
+      </c>
+      <c r="C4">
+        <v>1.0193304372485517E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.0021532210973997E-2</v>
+      </c>
+      <c r="E4">
+        <v>8.4213083031991175E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6.2499999999999986E-2</v>
+      </c>
+      <c r="B5">
+        <v>1.5527591472082672E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.6810481875143831E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.6059983955758915E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.8684034895057391E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5.5555555555555546E-2</v>
+      </c>
+      <c r="B6">
+        <v>1.5294587596014113E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.6702790345007597E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.5677958821264651E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.8448340152268424E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="B7">
+        <v>1.5108579274232634E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.6616822211620412E-2</v>
+      </c>
+      <c r="D7">
+        <v>2.5372938339572715E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.8260075338412417E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4.5454545454545442E-2</v>
+      </c>
+      <c r="B8">
+        <v>1.2130923910368794E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.4539471508701085E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.0484238623935211E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.5231578441408437E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="B9">
+        <v>1.2027120702529854E-2</v>
+      </c>
+      <c r="C9">
+        <v>1.4458879479159128E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.0313611971688409E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.5125433210572404E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3.846153846153845E-2</v>
+      </c>
+      <c r="B10">
+        <v>1.1938242038483099E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.438988189312785E-2</v>
+      </c>
+      <c r="D10">
+        <v>2.0167506623680356E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.5034513956382944E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3.5714285714285705E-2</v>
+      </c>
+      <c r="B11">
+        <v>1.1861285211378596E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.4330144770537982E-2</v>
+      </c>
+      <c r="D11">
+        <v>2.0040991006767418E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.4955763549346638E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="B12">
+        <v>1.1794002354933669E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.4277921144510779E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.9930373042493389E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.4886891994540921E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.1249999999999986E-2</v>
+      </c>
+      <c r="B13">
+        <v>1.1734677280702974E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.4231877481887456E-2</v>
+      </c>
+      <c r="D13">
+        <v>1.9832833377991476E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.4826150003807968E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2.9411764705882342E-2</v>
+      </c>
+      <c r="B14">
+        <v>9.8683892666986198E-3</v>
+      </c>
+      <c r="C14">
+        <v>1.2785574417062942E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.6762051333832524E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.2906445734272519E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2.7777777777777766E-2</v>
+      </c>
+      <c r="B15">
+        <v>9.8222373676439996E-3</v>
+      </c>
+      <c r="C15">
+        <v>1.2749869232787816E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.6686056562250012E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.2858721113346901E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>